--- a/components.xlsx
+++ b/components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellar\pv-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7576D257-A47A-41FB-8E2B-ED74937DD3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F38347-1D27-4668-883A-53D1444034C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="building" sheetId="3" r:id="rId1"/>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>uuid</t>
   </si>
@@ -370,9 +370,6 @@
     <t>lon</t>
   </si>
   <si>
-    <t>noname2</t>
-  </si>
-  <si>
     <t>Hannover</t>
   </si>
   <si>
@@ -469,34 +466,7 @@
     <t>stored</t>
   </si>
   <si>
-    <t>9d32e6d80d064d73961fce11c091532c</t>
-  </si>
-  <si>
-    <t>1693172807.1620224</t>
-  </si>
-  <si>
-    <t>{'B': 1, 'D': 2, 'A': (2,), 'C': 2, 'E': 1}</t>
-  </si>
-  <si>
-    <t>3af9eabc65df4e23b0e79462b9500b21</t>
-  </si>
-  <si>
-    <t>68a5fcc74f194499925fc3481c93c20d</t>
-  </si>
-  <si>
-    <t>1693743113.5832634</t>
-  </si>
-  <si>
-    <t>71f4563ae209434eadb9599f3c0c131d</t>
-  </si>
-  <si>
-    <t>69f236994e4e42b6b04b62d13676e3dd</t>
-  </si>
-  <si>
-    <t>1693743167.1862717</t>
-  </si>
-  <si>
-    <t>b3f12d91e2e141d199c6ee579c158b7d</t>
+    <t>noname</t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1435,13 +1405,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1477,16 +1447,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
@@ -1495,7 +1465,7 @@
         <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1509,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1535,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1584,25 +1554,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1610,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -1622,7 +1592,7 @@
         <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -1639,10 +1609,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -1651,7 +1621,7 @@
         <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -1796,24 +1766,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
       </c>
       <c r="C2">
         <v>2016</v>
@@ -1822,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1853,24 +1823,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>2016</v>
@@ -1879,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1890,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,79 +1881,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/components.xlsx
+++ b/components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellar\pv-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F38347-1D27-4668-883A-53D1444034C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54B4974-04E1-4435-B971-991220E1D1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2808" windowWidth="20616" windowHeight="7824" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="building" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="building" localSheetId="0">building!$A$1:$E$2</definedName>
     <definedName name="consumption" localSheetId="5">consumption!$A$1:$E$2</definedName>
-    <definedName name="equipment" localSheetId="2">equipment!$A$1:$I$3</definedName>
+    <definedName name="equipment" localSheetId="2">equipment!$A$1:$H$3</definedName>
     <definedName name="location" localSheetId="1">location!$A$1:$H$3</definedName>
     <definedName name="production" localSheetId="4">production!$A$1:$E$2</definedName>
     <definedName name="solution" localSheetId="6">solution!$A$1:$F$4</definedName>
@@ -73,7 +73,7 @@
     <author>Danila Valko</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4D555970-62F0-4443-87EB-4C97CC0B844B}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{4D555970-62F0-4443-87EB-4C97CC0B844B}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
     <author>Danila Valko</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{17A664F7-2B60-4CEC-B7AF-CD50091E8FED}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{17A664F7-2B60-4CEC-B7AF-CD50091E8FED}">
       <text>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>uuid</t>
   </si>
@@ -325,15 +325,9 @@
     <t>type</t>
   </si>
   <si>
-    <t>battery_capacity_Ah</t>
-  </si>
-  <si>
     <t>battery_energy_Wh</t>
   </si>
   <si>
-    <t>battery_voltage</t>
-  </si>
-  <si>
     <t>battery_discharge_factor</t>
   </si>
   <si>
@@ -412,9 +406,6 @@
     <t>pv_loss</t>
   </si>
   <si>
-    <t>pv_voltage</t>
-  </si>
-  <si>
     <t>pv_count</t>
   </si>
   <si>
@@ -430,12 +421,6 @@
     <t>(6528, 3294)</t>
   </si>
   <si>
-    <t>angle</t>
-  </si>
-  <si>
-    <t>aspect</t>
-  </si>
-  <si>
     <t>size_m</t>
   </si>
   <si>
@@ -467,6 +452,12 @@
   </si>
   <si>
     <t>noname</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>azimuth</t>
   </si>
 </sst>
 </file>
@@ -1371,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1405,16 +1396,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1418,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,25 +1438,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1479,16 +1470,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1505,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1522,16 +1513,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1542,11 +1534,10 @@
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1554,36 +1545,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -1592,27 +1580,24 @@
         <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>14</v>
       </c>
       <c r="H2">
-        <v>48</v>
-      </c>
-      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -1621,15 +1606,12 @@
         <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>14</v>
       </c>
       <c r="H3">
-        <v>48</v>
-      </c>
-      <c r="I3">
         <v>1</v>
       </c>
     </row>
@@ -1641,25 +1623,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1678,62 +1658,44 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4800</v>
-      </c>
-      <c r="E2" s="1">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1">
         <v>2880</v>
       </c>
-      <c r="E3" s="1">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1766,24 +1728,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>2016</v>
@@ -1792,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1823,24 +1785,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>2016</v>
@@ -1849,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1862,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A2:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1881,19 +1843,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/components.xlsx
+++ b/components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellar\pv-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54B4974-04E1-4435-B971-991220E1D1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B46BDF-7926-4F3C-9284-8F6EDD65659E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2808" windowWidth="20616" windowHeight="7824" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="building" sheetId="3" r:id="rId1"/>
@@ -165,6 +165,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{61F1B14B-34EF-4EDC-BB21-704016FF820F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Danila Valko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+stored production file name</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -176,6 +200,30 @@
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{6EC5F7D0-7EC0-448E-8995-EE82C3E474CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Danila Valko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+stored consumption file name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{28EB2036-E5D1-4D4D-8BA2-E44866242164}">
       <text>
         <r>
           <rPr>
@@ -317,7 +365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>uuid</t>
   </si>
@@ -382,9 +430,6 @@
     <t>consumption</t>
   </si>
   <si>
-    <t>0d9cedfe1dff4d72bfd1e6818eeaf30d</t>
-  </si>
-  <si>
     <t>1693141391.2707944</t>
   </si>
   <si>
@@ -451,13 +496,58 @@
     <t>stored</t>
   </si>
   <si>
-    <t>noname</t>
-  </si>
-  <si>
     <t>slope</t>
   </si>
   <si>
     <t>azimuth</t>
+  </si>
+  <si>
+    <t>9.737</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>noname1</t>
+  </si>
+  <si>
+    <t>noname2</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>l3</t>
+  </si>
+  <si>
+    <t>l4</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>bt1</t>
+  </si>
+  <si>
+    <t>bt2</t>
+  </si>
+  <si>
+    <t>e3c75c56f5b0438ca04f2fd84c992eeb</t>
+  </si>
+  <si>
+    <t>0d9cedfe1dff4d72bfd1e6818eeaf30a</t>
+  </si>
+  <si>
+    <t>0d9cedfe1dff4d72bfd1e6818eeaf30b</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,11 +1482,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1406,6 +1496,23 @@
       </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1415,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>13</v>
@@ -1460,8 +1567,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>50</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1470,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1481,22 +1588,22 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="H2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1507,8 +1614,60 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
         <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1682,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,33 +1704,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>54</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -1580,7 +1739,7 @@
         <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -1590,14 +1749,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -1606,7 +1765,7 @@
         <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -1626,7 +1785,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1660,8 +1819,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1680,8 +1839,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1708,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1737,24 +1896,41 @@
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>2016</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1765,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,19 +1975,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>2016</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>17</v>
@@ -1852,10 +2045,10 @@
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/components.xlsx
+++ b/components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellar\pv-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B46BDF-7926-4F3C-9284-8F6EDD65659E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EAA9A4-188B-4164-8056-D91312A34E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="building" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="building" localSheetId="0">building!$A$1:$E$2</definedName>
     <definedName name="consumption" localSheetId="5">consumption!$A$1:$E$2</definedName>
     <definedName name="equipment" localSheetId="2">equipment!$A$1:$H$3</definedName>
-    <definedName name="location" localSheetId="1">location!$A$1:$H$3</definedName>
+    <definedName name="location" localSheetId="1">location!$A$1:$G$6</definedName>
     <definedName name="production" localSheetId="4">production!$A$1:$E$2</definedName>
     <definedName name="solution" localSheetId="6">solution!$A$1:$F$4</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
     <author>Danila Valko</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{4DC40BAE-31E2-4308-9DA8-4322187344DA}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4DC40BAE-31E2-4308-9DA8-4322187344DA}">
       <text>
         <r>
           <rPr>
@@ -141,6 +141,30 @@
     <author>Danila Valko</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DD7D3B0A-2A49-4A91-A690-028B5D661264}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Danila Valko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+should be linked to 'building' column in buildings list</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{F2A04B0B-A031-47C4-A2F8-5520FB3A4AFB}">
       <text>
         <r>
@@ -189,6 +213,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{079F226C-02AE-4A2A-8313-57EB3B53C5D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Danila Valko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+stored production file name</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -199,6 +247,30 @@
     <author>Danila Valko</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7065D446-1627-4AB5-97C8-7A2B58FC8ED6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Danila Valko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+should be linked to 'building' column in buildings list</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{6EC5F7D0-7EC0-448E-8995-EE82C3E474CB}">
       <text>
         <r>
@@ -247,6 +319,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{4A0B47B6-8C3D-412E-BFB9-A77674E5105A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Danila Valko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+stored consumption file name</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -257,6 +353,30 @@
     <author>Danila Valko</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2AC61884-DA45-4302-B898-A2A38AFF2FE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Danila Valko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+should be linked to 'building' column in buildings list</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{334844F8-7B9B-437D-81F8-6079EEC64FB8}">
       <text>
         <r>
@@ -365,7 +485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>uuid</t>
   </si>
@@ -412,9 +532,6 @@
     <t>lon</t>
   </si>
   <si>
-    <t>Hannover</t>
-  </si>
-  <si>
     <t>52.373</t>
   </si>
   <si>
@@ -424,9 +541,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>building</t>
-  </si>
-  <si>
     <t>consumption</t>
   </si>
   <si>
@@ -466,9 +580,6 @@
     <t>(6528, 3294)</t>
   </si>
   <si>
-    <t>size_m</t>
-  </si>
-  <si>
     <t>price_per_sqm</t>
   </si>
   <si>
@@ -502,21 +613,12 @@
     <t>azimuth</t>
   </si>
   <si>
-    <t>9.737</t>
-  </si>
-  <si>
     <t>b1</t>
   </si>
   <si>
     <t>b2</t>
   </si>
   <si>
-    <t>noname1</t>
-  </si>
-  <si>
-    <t>noname2</t>
-  </si>
-  <si>
     <t>l1</t>
   </si>
   <si>
@@ -548,13 +650,85 @@
   </si>
   <si>
     <t>0d9cedfe1dff4d72bfd1e6818eeaf30b</t>
+  </si>
+  <si>
+    <t>building_uuid</t>
+  </si>
+  <si>
+    <t>size_WxHm</t>
+  </si>
+  <si>
+    <t>size_sqm</t>
+  </si>
+  <si>
+    <t>Grundschule Wettmar</t>
+  </si>
+  <si>
+    <t>Grundschule Kleinburgwedel</t>
+  </si>
+  <si>
+    <t>Schulstrasse, 12, Burgwedel</t>
+  </si>
+  <si>
+    <t>l5</t>
+  </si>
+  <si>
+    <t>l6</t>
+  </si>
+  <si>
+    <t>l7</t>
+  </si>
+  <si>
+    <t>l8</t>
+  </si>
+  <si>
+    <t>l9</t>
+  </si>
+  <si>
+    <t>l10</t>
+  </si>
+  <si>
+    <t>Moorweg, 5, Burgwedel; Moorweg, 3, Burgwedel; Burgstrasse, 23, Burgwedel</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>Klärwerk Großburgwedel</t>
+  </si>
+  <si>
+    <t>Burgwedel</t>
+  </si>
+  <si>
+    <t>l11</t>
+  </si>
+  <si>
+    <t>l12</t>
+  </si>
+  <si>
+    <t>l13</t>
+  </si>
+  <si>
+    <t>l14</t>
+  </si>
+  <si>
+    <t>l15</t>
+  </si>
+  <si>
+    <t>l16</t>
+  </si>
+  <si>
+    <t>l17</t>
+  </si>
+  <si>
+    <t>l18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,6 +893,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1450,16 +1631,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1483,16 +1665,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1500,19 +1682,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1522,155 +1721,462 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>182</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>225</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>77</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>203</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>215</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>84</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>93</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>69</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>74</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
         <v>51</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4">
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>41</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1704,33 +2210,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -1739,7 +2245,7 @@
         <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -1750,13 +2256,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -1765,7 +2271,7 @@
         <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -1792,7 +2298,7 @@
   <cols>
     <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -1820,7 +2326,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1840,7 +2346,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1867,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1878,7 +2384,7 @@
     <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1887,50 +2393,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>2016</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1941,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1952,7 +2475,7 @@
     <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1961,50 +2484,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>2016</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2017,18 +2557,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2036,19 +2576,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/components.xlsx
+++ b/components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellar\pv-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EAA9A4-188B-4164-8056-D91312A34E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C9E51-4CA1-4E6E-82E5-6FDF305892CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="building" sheetId="3" r:id="rId1"/>
@@ -271,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{6EC5F7D0-7EC0-448E-8995-EE82C3E474CB}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{36FC0BDB-CC8E-44C0-A52F-6A696D9A9F9E}">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{28EB2036-E5D1-4D4D-8BA2-E44866242164}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{10F9958A-B938-44DC-B6C3-E51CFAA06716}">
       <text>
         <r>
           <rPr>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
   <si>
     <t>uuid</t>
   </si>
@@ -547,9 +547,6 @@
     <t>1693141391.2707944</t>
   </si>
   <si>
-    <t>8bdd9318396643a6aab96b2f936d1021</t>
-  </si>
-  <si>
     <t>pv_size_mm</t>
   </si>
   <si>
@@ -595,9 +592,6 @@
     <t>1693140034.371252</t>
   </si>
   <si>
-    <t>b87d009ec7a84b7ea59563035bfbcb46</t>
-  </si>
-  <si>
     <t>selected</t>
   </si>
   <si>
@@ -722,6 +716,21 @@
   </si>
   <si>
     <t>l18</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>0d9cedfe1dff4d72bfd1e6818eeaf30c</t>
+  </si>
+  <si>
+    <t>mook</t>
+  </si>
+  <si>
+    <t>e3c75c56f5b0438ca04f2fd84c992eec</t>
+  </si>
+  <si>
+    <t>pumps</t>
   </si>
 </sst>
 </file>
@@ -1665,13 +1674,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1682,13 +1691,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1699,13 +1708,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1723,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1743,27 +1752,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>37</v>
@@ -1772,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>182</v>
@@ -1781,12 +1790,12 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>37</v>
@@ -1795,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>225</v>
@@ -1804,12 +1813,12 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>37</v>
@@ -1818,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>134</v>
@@ -1827,12 +1836,12 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>37</v>
@@ -1841,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>71</v>
@@ -1850,12 +1859,12 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>36</v>
@@ -1864,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>39</v>
@@ -1873,12 +1882,12 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1887,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>43</v>
@@ -1896,12 +1905,12 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1910,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>77</v>
@@ -1919,12 +1928,12 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1933,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>203</v>
@@ -1942,12 +1951,12 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1956,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>24</v>
@@ -1965,12 +1974,12 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -1979,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>215</v>
@@ -1988,12 +1997,12 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>18</v>
@@ -2002,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>84</v>
@@ -2011,12 +2020,12 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>18</v>
@@ -2025,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>93</v>
@@ -2034,12 +2043,12 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>19</v>
@@ -2048,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>69</v>
@@ -2057,12 +2066,12 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -2071,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>74</v>
@@ -2080,12 +2089,12 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2094,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>51</v>
@@ -2103,12 +2112,12 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2117,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>19</v>
@@ -2126,12 +2135,12 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>21</v>
@@ -2140,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>39</v>
@@ -2149,12 +2158,12 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -2163,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>41</v>
@@ -2172,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2210,33 +2219,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -2245,7 +2254,7 @@
         <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -2256,13 +2265,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -2271,7 +2280,7 @@
         <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -2326,7 +2335,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -2346,7 +2355,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2376,7 +2385,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2399,61 +2408,61 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2466,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2490,7 +2499,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -2498,41 +2507,41 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2541,10 +2550,10 @@
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2576,19 +2585,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/components.xlsx
+++ b/components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellar\pv-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C9E51-4CA1-4E6E-82E5-6FDF305892CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8615D049-F29C-41BB-A370-C38252687A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="building" sheetId="3" r:id="rId1"/>
@@ -24,12 +24,12 @@
   <definedNames>
     <definedName name="building" localSheetId="0">building!$A$1:$E$2</definedName>
     <definedName name="consumption" localSheetId="5">consumption!$A$1:$E$2</definedName>
-    <definedName name="equipment" localSheetId="2">equipment!$A$1:$H$3</definedName>
+    <definedName name="equipment" localSheetId="2">equipment!$A$1:$H$1</definedName>
     <definedName name="location" localSheetId="1">location!$A$1:$G$6</definedName>
     <definedName name="production" localSheetId="4">production!$A$1:$E$2</definedName>
     <definedName name="solution" localSheetId="6">solution!$A$1:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="107">
   <si>
     <t>uuid</t>
   </si>
@@ -511,15 +511,6 @@
     <t>0.7</t>
   </si>
   <si>
-    <t>9.738</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>3.738</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -532,9 +523,6 @@
     <t>lon</t>
   </si>
   <si>
-    <t>52.373</t>
-  </si>
-  <si>
     <t>timestamp</t>
   </si>
   <si>
@@ -568,15 +556,6 @@
     <t>CIS</t>
   </si>
   <si>
-    <t>(2176, 1098)</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>(6528, 3294)</t>
-  </si>
-  <si>
     <t>price_per_sqm</t>
   </si>
   <si>
@@ -625,18 +604,6 @@
     <t>l4</t>
   </si>
   <si>
-    <t>e1</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>bt1</t>
-  </si>
-  <si>
-    <t>bt2</t>
-  </si>
-  <si>
     <t>e3c75c56f5b0438ca04f2fd84c992eeb</t>
   </si>
   <si>
@@ -731,6 +698,114 @@
   </si>
   <si>
     <t>pumps</t>
+  </si>
+  <si>
+    <t>Trina VertexS-NEG9R.28</t>
+  </si>
+  <si>
+    <t>(1762, 1134)</t>
+  </si>
+  <si>
+    <t>FuturaSun Silk Pro All Black 360W</t>
+  </si>
+  <si>
+    <t>Viessmann PV-Solarmodul Vitovolt 300 M410 WK</t>
+  </si>
+  <si>
+    <t>(1755, 1038)</t>
+  </si>
+  <si>
+    <t>(1719, 1140)</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>20.31</t>
+  </si>
+  <si>
+    <t>20.92</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>52.37052</t>
+  </si>
+  <si>
+    <t>9.73322</t>
+  </si>
+  <si>
+    <t>Pylontech US5000</t>
+  </si>
+  <si>
+    <t>Pylontech US3000C</t>
+  </si>
+  <si>
+    <t>Pylontech US2000C</t>
+  </si>
+  <si>
+    <t>BYD B-BOX PREMIUM LVS 4.0</t>
+  </si>
+  <si>
+    <t>BYD B-BOX PREMIUM LVS 8.0</t>
+  </si>
+  <si>
+    <t>BYD B-BOX PREMIUM LVS 16.0</t>
+  </si>
+  <si>
+    <t>BYD B-BOX PREMIUM LVS 20.0</t>
+  </si>
+  <si>
+    <t>BYD B-BOX PREMIUM LVS 24.0</t>
+  </si>
+  <si>
+    <t>BYD Stromspeicher B-Box Premium HVS 5.1</t>
+  </si>
+  <si>
+    <t>BYD Stromspeicher B-Box Premium HVS 7.7</t>
+  </si>
+  <si>
+    <t>BYD Stromspeicher B-Box Premium HVS 10.2</t>
+  </si>
+  <si>
+    <t>BYD Stromspeicher B-Box Premium HVS 12.8</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.66</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1327,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1261,6 +1336,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1643,7 +1727,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1660,67 +1744,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1733,7 +1817,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F19" sqref="B2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1752,436 +1836,436 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4">
         <v>37</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4">
         <v>182</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4">
         <v>37</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4">
         <v>225</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4">
         <v>37</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="4">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4">
         <v>134</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4">
         <v>37</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4">
         <v>71</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4">
         <v>36</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4">
         <v>39</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4">
         <v>43</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4">
         <v>77</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4">
         <v>203</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="4">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4">
         <v>215</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4">
         <v>84</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13">
+        <v>59</v>
+      </c>
+      <c r="B13" s="4">
         <v>18</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4">
         <v>93</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="B14" s="4">
         <v>19</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14">
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4">
         <v>69</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15">
+        <v>61</v>
+      </c>
+      <c r="B15" s="4">
         <v>19</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4">
         <v>74</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4">
         <v>51</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17">
+        <v>63</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4">
         <v>19</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4">
         <v>21</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18">
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="4">
         <v>39</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4">
         <v>21</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4">
         <v>41</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2194,15 +2278,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H4" sqref="B2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
@@ -2219,73 +2304,99 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>500</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="4">
+        <v>450</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="4">
         <v>14</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3">
+        <v>73</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="4">
+        <v>360</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="4">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="4">
+        <v>410</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="4">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2297,15 +2408,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
@@ -2335,41 +2446,241 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>4800</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>2880</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="C3" s="4">
+        <v>3500</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2400</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4000</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8000</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>16000</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>24000</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5100</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7700</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10200</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <v>12800</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2385,7 +2696,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2402,67 +2713,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2475,7 +2786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2493,67 +2804,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2022</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2585,19 +2896,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/components.xlsx
+++ b/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellar\pv-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8615D049-F29C-41BB-A370-C38252687A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE75082-E5BE-40D7-A06E-41D2B2E4AE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,12 @@
   <definedNames>
     <definedName name="building" localSheetId="0">building!$A$1:$E$2</definedName>
     <definedName name="consumption" localSheetId="5">consumption!$A$1:$E$2</definedName>
-    <definedName name="equipment" localSheetId="2">equipment!$A$1:$H$1</definedName>
+    <definedName name="equipment" localSheetId="2">equipment!$A$1:$J$1</definedName>
     <definedName name="location" localSheetId="1">location!$A$1:$G$6</definedName>
     <definedName name="production" localSheetId="4">production!$A$1:$E$2</definedName>
     <definedName name="solution" localSheetId="6">solution!$A$1:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -73,7 +73,7 @@
     <author>Danila Valko</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{4D555970-62F0-4443-87EB-4C97CC0B844B}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4D555970-62F0-4443-87EB-4C97CC0B844B}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
     <author>Danila Valko</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{17A664F7-2B60-4CEC-B7AF-CD50091E8FED}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{17A664F7-2B60-4CEC-B7AF-CD50091E8FED}">
       <text>
         <r>
           <rPr>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
   <si>
     <t>uuid</t>
   </si>
@@ -493,15 +493,9 @@
     <t>type</t>
   </si>
   <si>
-    <t>battery_energy_Wh</t>
-  </si>
-  <si>
     <t>battery_discharge_factor</t>
   </si>
   <si>
-    <t>battery_price_per_Wh</t>
-  </si>
-  <si>
     <t>battery_count</t>
   </si>
   <si>
@@ -535,9 +529,6 @@
     <t>1693141391.2707944</t>
   </si>
   <si>
-    <t>pv_size_mm</t>
-  </si>
-  <si>
     <t>pv_efficiency</t>
   </si>
   <si>
@@ -703,21 +694,12 @@
     <t>Trina VertexS-NEG9R.28</t>
   </si>
   <si>
-    <t>(1762, 1134)</t>
-  </si>
-  <si>
     <t>FuturaSun Silk Pro All Black 360W</t>
   </si>
   <si>
     <t>Viessmann PV-Solarmodul Vitovolt 300 M410 WK</t>
   </si>
   <si>
-    <t>(1755, 1038)</t>
-  </si>
-  <si>
-    <t>(1719, 1140)</t>
-  </si>
-  <si>
     <t>22.0</t>
   </si>
   <si>
@@ -806,6 +788,63 @@
   </si>
   <si>
     <t>0.66</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>pv_size_Wmm</t>
+  </si>
+  <si>
+    <t>pv_size_Hmm</t>
+  </si>
+  <si>
+    <t>pv_price</t>
+  </si>
+  <si>
+    <t>battery_energy_kWh</t>
+  </si>
+  <si>
+    <t>battery_price</t>
+  </si>
+  <si>
+    <t>battery_price_per_kWh</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>12.8</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1366,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1345,6 +1384,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1727,7 +1782,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1735,8 +1790,8 @@
     <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1744,67 +1799,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1817,7 +1872,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="B2:F19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,27 +1891,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>35</v>
       </c>
       <c r="B2" s="4">
         <v>37</v>
@@ -1865,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>182</v>
@@ -1873,13 +1928,13 @@
       <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
       </c>
       <c r="B3" s="4">
         <v>37</v>
@@ -1888,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4">
         <v>225</v>
@@ -1896,13 +1951,13 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>37</v>
+      <c r="A4" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="4">
         <v>37</v>
@@ -1911,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4">
         <v>134</v>
@@ -1919,13 +1974,13 @@
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
+      <c r="A5" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="4">
         <v>37</v>
@@ -1934,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4">
         <v>71</v>
@@ -1942,13 +1997,13 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
+      <c r="A6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="4">
         <v>36</v>
@@ -1957,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4">
         <v>39</v>
@@ -1965,13 +2020,13 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>33</v>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>49</v>
+      <c r="A7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -1980,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4">
         <v>43</v>
@@ -1988,13 +2043,13 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
+      <c r="G7" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>50</v>
+      <c r="A8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -2003,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4">
         <v>77</v>
@@ -2011,13 +2066,13 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>51</v>
+      <c r="A9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -2026,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4">
         <v>203</v>
@@ -2034,13 +2089,13 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>34</v>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>52</v>
+      <c r="A10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -2049,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4">
         <v>24</v>
@@ -2057,13 +2112,13 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>34</v>
+      <c r="G10" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>53</v>
+      <c r="A11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="4">
         <v>15</v>
@@ -2072,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4">
         <v>215</v>
@@ -2080,13 +2135,13 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>34</v>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>58</v>
+      <c r="A12" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B12" s="4">
         <v>18</v>
@@ -2095,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4">
         <v>84</v>
@@ -2103,13 +2158,13 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>55</v>
+      <c r="G12" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>59</v>
+      <c r="A13" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B13" s="4">
         <v>18</v>
@@ -2118,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="4">
         <v>93</v>
@@ -2126,13 +2181,13 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
-        <v>55</v>
+      <c r="G13" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>60</v>
+      <c r="A14" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B14" s="4">
         <v>19</v>
@@ -2141,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="4">
         <v>69</v>
@@ -2149,13 +2204,13 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>55</v>
+      <c r="G14" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>61</v>
+      <c r="A15" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B15" s="4">
         <v>19</v>
@@ -2164,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4">
         <v>74</v>
@@ -2172,13 +2227,13 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
-        <v>55</v>
+      <c r="G15" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>62</v>
+      <c r="A16" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -2187,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4">
         <v>51</v>
@@ -2195,13 +2250,13 @@
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
-        <v>55</v>
+      <c r="G16" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>63</v>
+      <c r="A17" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -2210,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17" s="4">
         <v>19</v>
@@ -2218,13 +2273,13 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>55</v>
+      <c r="G17" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>64</v>
+      <c r="A18" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
@@ -2233,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4">
         <v>39</v>
@@ -2241,13 +2296,13 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
-        <v>55</v>
+      <c r="G18" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>65</v>
+      <c r="A19" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B19" s="4">
         <v>21</v>
@@ -2256,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E19" s="4">
         <v>41</v>
@@ -2264,8 +2319,8 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
-        <v>55</v>
+      <c r="G19" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2278,25 +2333,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="B2:H4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2304,99 +2361,123 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" s="4">
+        <v>1762</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1134</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4">
+        <v>450</v>
+      </c>
+      <c r="G2" s="4">
+        <v>110</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="4">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1755</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1038</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="4">
-        <v>450</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F3" s="4">
+        <v>360</v>
+      </c>
+      <c r="G3" s="4">
+        <v>199</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="4">
         <v>14</v>
       </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1719</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1140</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="4">
-        <v>360</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F4" s="4">
+        <v>410</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="4">
         <v>14</v>
       </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="4">
-        <v>410</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="4">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="J4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2408,279 +2489,342 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E3" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>949.99999999999989</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>640</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2350</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4100</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7450</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4800</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>9100</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>3500</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3800</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2400</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>4000</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5350</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
-        <v>8000</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7140</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>16000</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8450</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>24000</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5100</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4">
-        <v>7700</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4">
-        <v>10200</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4">
-        <v>12800</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="G14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2713,67 +2857,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2804,67 +2948,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>2022</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2896,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
